--- a/KS4/Year-10.xlsx
+++ b/KS4/Year-10.xlsx
@@ -128,9 +128,6 @@
     <t>Project Success Criteria</t>
   </si>
   <si>
-    <t>Twelve-Fifteen</t>
-  </si>
-  <si>
     <t>Programming (PR)</t>
   </si>
   <si>
@@ -403,6 +400,9 @@
   </si>
   <si>
     <t>observatory.mozilla.org, haveibeenpwned.com</t>
+  </si>
+  <si>
+    <t>Sixteen-Nineteen</t>
   </si>
 </sst>
 </file>
@@ -833,8 +833,8 @@
   </sheetPr>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="60" customHeight="1"/>
@@ -905,60 +905,60 @@
     </row>
     <row r="3" spans="1:13" ht="118.5" customHeight="1">
       <c r="A3" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="E3" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="12">
+        <v>1</v>
+      </c>
+      <c r="H3" s="12">
+        <v>1</v>
+      </c>
+      <c r="I3" s="12">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="12">
-        <v>1</v>
-      </c>
-      <c r="H3" s="12">
-        <v>1</v>
-      </c>
-      <c r="I3" s="12">
-        <v>1</v>
-      </c>
-      <c r="J3" s="7" t="s">
+      <c r="L3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>32</v>
-      </c>
       <c r="M3" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="60" customHeight="1">
       <c r="A4" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
@@ -973,33 +973,33 @@
         <v>2</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>34</v>
-      </c>
       <c r="M4" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="90" customHeight="1">
       <c r="A5" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="E5" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
@@ -1017,30 +1017,30 @@
         <v>2</v>
       </c>
       <c r="K5" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="15" t="s">
         <v>37</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="60" customHeight="1">
       <c r="A6" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="E6" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -1058,30 +1058,30 @@
         <v>3</v>
       </c>
       <c r="K6" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L6" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="94.5" customHeight="1">
       <c r="A7" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="E7" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
@@ -1096,33 +1096,33 @@
         <v>2</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="15" t="s">
         <v>41</v>
-      </c>
-      <c r="M7" s="15" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="76.5" customHeight="1">
       <c r="A8" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="E8" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
@@ -1137,33 +1137,33 @@
         <v>3</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="L8" s="17" t="s">
+      <c r="M8" s="17" t="s">
         <v>45</v>
-      </c>
-      <c r="M8" s="17" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="80.25" customHeight="1">
       <c r="A9" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
@@ -1181,30 +1181,30 @@
         <v>4</v>
       </c>
       <c r="K9" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" s="15" t="s">
         <v>47</v>
-      </c>
-      <c r="M9" s="15" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="98.25" customHeight="1">
       <c r="A10" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
@@ -1222,30 +1222,30 @@
         <v>5</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L10" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" s="15" t="s">
         <v>49</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="75" customHeight="1">
       <c r="A11" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
@@ -1263,30 +1263,30 @@
         <v>6</v>
       </c>
       <c r="K11" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L11" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" s="15" t="s">
         <v>51</v>
-      </c>
-      <c r="M11" s="15" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="77.25" customHeight="1">
       <c r="A12" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
@@ -1304,30 +1304,30 @@
         <v>7</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L12" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" s="15" t="s">
         <v>53</v>
-      </c>
-      <c r="M12" s="15" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="60" customHeight="1">
       <c r="A13" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
@@ -1345,30 +1345,30 @@
         <v>8</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M13" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="60" customHeight="1">
       <c r="A14" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -1383,33 +1383,33 @@
         <v>3</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M14" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="94.5" customHeight="1">
       <c r="A15" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
@@ -1424,33 +1424,33 @@
         <v>1</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K15" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="L15" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="K15" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="L15" s="15" t="s">
+      <c r="M15" s="15" t="s">
         <v>61</v>
-      </c>
-      <c r="M15" s="15" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="132.75" customHeight="1">
       <c r="A16" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16" s="2">
         <v>1</v>
@@ -1465,33 +1465,33 @@
         <v>2</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="K16" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="L16" s="15" t="s">
+      <c r="M16" s="15" t="s">
         <v>64</v>
-      </c>
-      <c r="M16" s="15" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="107.25" customHeight="1">
       <c r="A17" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F17" s="2">
         <v>1</v>
@@ -1506,33 +1506,33 @@
         <v>3</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="L17" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="K17" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="L17" s="15" t="s">
+      <c r="M17" s="15" t="s">
         <v>67</v>
-      </c>
-      <c r="M17" s="15" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="109.5" customHeight="1">
       <c r="A18" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
@@ -1550,30 +1550,30 @@
         <v>9</v>
       </c>
       <c r="K18" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L18" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="M18" s="15" t="s">
         <v>69</v>
-      </c>
-      <c r="M18" s="15" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="91.5" customHeight="1">
       <c r="A19" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F19" s="2">
         <v>1</v>
@@ -1591,30 +1591,30 @@
         <v>10</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L19" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="M19" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="M19" s="15" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="92.25" customHeight="1">
       <c r="A20" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F20" s="2">
         <v>1</v>
@@ -1629,30 +1629,30 @@
         <v>3</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K20" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L20" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="91.5" customHeight="1">
       <c r="A21" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>11</v>
@@ -1673,27 +1673,27 @@
         <v>12</v>
       </c>
       <c r="K21" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L21" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="M21" s="15" t="s">
         <v>76</v>
-      </c>
-      <c r="M21" s="15" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="78.75" customHeight="1">
       <c r="A22" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B22" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>11</v>
@@ -1711,30 +1711,30 @@
         <v>2</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K22" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="L22" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="K22" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="L22" s="16" t="s">
+      <c r="M22" s="16" t="s">
         <v>79</v>
-      </c>
-      <c r="M22" s="16" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="99" customHeight="1">
       <c r="A23" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>11</v>
@@ -1755,27 +1755,27 @@
         <v>13</v>
       </c>
       <c r="K23" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L23" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="M23" s="15" t="s">
         <v>81</v>
-      </c>
-      <c r="M23" s="15" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="102" customHeight="1">
       <c r="A24" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B24" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>11</v>
@@ -1796,27 +1796,27 @@
         <v>14</v>
       </c>
       <c r="K24" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L24" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="M24" s="15" t="s">
         <v>83</v>
-      </c>
-      <c r="M24" s="15" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="66.75" customHeight="1">
       <c r="A25" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B25" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>11</v>
@@ -1834,30 +1834,30 @@
         <v>2</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K25" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="L25" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="K25" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="L25" s="16" t="s">
+      <c r="M25" s="16" t="s">
         <v>86</v>
-      </c>
-      <c r="M25" s="16" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="60" customHeight="1">
       <c r="A26" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B26" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>11</v>
@@ -1875,16 +1875,16 @@
         <v>3</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K26" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="L26" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="K26" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="L26" s="16" t="s">
+      <c r="M26" s="16" t="s">
         <v>86</v>
-      </c>
-      <c r="M26" s="16" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
